--- a/Time management.xlsx
+++ b/Time management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Google Drive\Backup\Arduino\Projects\Boat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00204438\Documents\GitHub\Titanic-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03491EA-0C54-497D-9A5C-5FD7AB9AA5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E870795-0037-4656-A47A-39DAF1255A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22455" yWindow="1995" windowWidth="15945" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-27675" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Erledigen</t>
   </si>
@@ -230,7 +230,7 @@
       <name val="E+H Sans JP"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,9 +524,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -866,11 +878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
@@ -988,7 +1000,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
@@ -1017,7 +1029,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
@@ -1046,7 +1058,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
@@ -1075,7 +1087,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
@@ -1091,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1104,7 +1116,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
@@ -1120,16 +1132,18 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="22"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
@@ -1144,23 +1158,23 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="21"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
@@ -1179,15 +1193,15 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
@@ -1214,7 +1228,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
@@ -1232,8 +1246,12 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1243,9 +1261,7 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
@@ -1272,9 +1288,7 @@
       <c r="T15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
@@ -1295,7 +1309,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="22"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
@@ -1316,7 +1330,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="21"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -1337,7 +1351,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
@@ -1358,7 +1372,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="21"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
@@ -1379,7 +1393,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="U20" s="21"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
@@ -1400,7 +1414,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="21"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
@@ -1421,7 +1435,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
@@ -1442,7 +1456,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="U23" s="21"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
@@ -1463,7 +1477,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="U24" s="21"/>
     </row>
     <row r="25" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">

--- a/Time management.xlsx
+++ b/Time management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00204438\Documents\GitHub\Titanic-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E870795-0037-4656-A47A-39DAF1255A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD06EF-B47E-4EB7-888A-0013914AD22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-27675" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>Erledigen</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>KW49</t>
+  </si>
+  <si>
+    <t>Programmieren</t>
   </si>
 </sst>
 </file>
@@ -509,6 +512,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -523,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +882,7 @@
   <dimension ref="B1:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,32 +897,32 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="2:21" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -978,7 +981,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1000,10 +1003,10 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="21"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1029,10 +1032,10 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="22"/>
+      <c r="U6" s="17"/>
     </row>
     <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1058,10 +1061,10 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="21"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1087,10 +1090,10 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="22"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="19"/>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1116,10 +1119,10 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="21"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1143,10 +1146,10 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="22"/>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,10 +1177,10 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="21"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1201,10 +1204,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="22"/>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1228,10 +1231,10 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="21"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1253,18 +1256,18 @@
         <v>6</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="19"/>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1283,36 +1286,60 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="19"/>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="22"/>
+      <c r="R16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="19"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1330,10 +1357,10 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="21"/>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1351,10 +1378,10 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="21"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1372,10 +1399,10 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="21"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1393,10 +1420,10 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="21"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="19"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1414,10 +1441,10 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="21"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+      <c r="B22" s="19"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1435,10 +1462,10 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1456,10 +1483,10 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="21"/>
+      <c r="U23" s="16"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1477,7 +1504,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="16"/>
     </row>
     <row r="25" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
